--- a/outcome/simulate data/B_Brucellosis.xlsx
+++ b/outcome/simulate data/B_Brucellosis.xlsx
@@ -412,7 +412,7 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>3852.79012319079</v>
+        <v>4012.06930574177</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -422,7 +422,7 @@
         <v>44713</v>
       </c>
       <c r="H2" t="n">
-        <v>7952.4965212001</v>
+        <v>8216.85444006781</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -434,7 +434,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>3599.14883126273</v>
+        <v>3514.82706071691</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -444,7 +444,7 @@
         <v>44743</v>
       </c>
       <c r="H3" t="n">
-        <v>6946.43990494625</v>
+        <v>7354.85087887055</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -456,7 +456,7 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>3207.64266055144</v>
+        <v>2679.67050434671</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -466,7 +466,7 @@
         <v>44774</v>
       </c>
       <c r="H4" t="n">
-        <v>5769.71654176671</v>
+        <v>5370.17876197715</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -478,7 +478,7 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>2822.22121797079</v>
+        <v>1888.72244815158</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -488,7 +488,7 @@
         <v>44805</v>
       </c>
       <c r="H5" t="n">
-        <v>4894.60569163111</v>
+        <v>4839.49785581797</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -500,7 +500,7 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>2531.99830509682</v>
+        <v>1568.75906353306</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -510,7 +510,7 @@
         <v>44835</v>
       </c>
       <c r="H6" t="n">
-        <v>3855.19302265086</v>
+        <v>3771.5196676472</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -522,7 +522,7 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>2399.84019573186</v>
+        <v>1440.6652227466</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -532,7 +532,7 @@
         <v>44866</v>
       </c>
       <c r="H7" t="n">
-        <v>3573.55381539537</v>
+        <v>3594.69332166421</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -544,7 +544,7 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>2417.68354441632</v>
+        <v>1277.55908278061</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -554,7 +554,7 @@
         <v>44896</v>
       </c>
       <c r="H8" t="n">
-        <v>4302.96652138086</v>
+        <v>4627.35689096406</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -566,7 +566,7 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>2584.16807453737</v>
+        <v>1914.18186636864</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -576,7 +576,7 @@
         <v>44927</v>
       </c>
       <c r="H9" t="n">
-        <v>4822.15555157144</v>
+        <v>5738.04641332939</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -588,7 +588,7 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>2915.17980423476</v>
+        <v>2442.96234513658</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -598,7 +598,7 @@
         <v>44958</v>
       </c>
       <c r="H10" t="n">
-        <v>5854.14337239143</v>
+        <v>6870.72587501736</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -610,7 +610,7 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>3281.10027549018</v>
+        <v>3212.21767404389</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -620,7 +620,7 @@
         <v>44986</v>
       </c>
       <c r="H11" t="n">
-        <v>6850.38047591764</v>
+        <v>8239.22100700915</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -632,7 +632,7 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>3620.47650419481</v>
+        <v>3694.38789899527</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -642,7 +642,7 @@
         <v>45017</v>
       </c>
       <c r="H12" t="n">
-        <v>9004.13811856467</v>
+        <v>10129.9497746727</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -654,7 +654,7 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>3819.65037584358</v>
+        <v>4048.75482053375</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -664,7 +664,7 @@
         <v>45047</v>
       </c>
       <c r="H13" t="n">
-        <v>9372.04457972713</v>
+        <v>10010.6576545723</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -676,7 +676,7 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>3770.86677620066</v>
+        <v>3892.17447556487</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -686,7 +686,7 @@
         <v>45078</v>
       </c>
       <c r="H14" t="n">
-        <v>9090.20513374454</v>
+        <v>8370.51715727642</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -698,7 +698,7 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>3544.63478009474</v>
+        <v>3106.61000941866</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -708,7 +708,7 @@
         <v>45108</v>
       </c>
       <c r="H15" t="n">
-        <v>7786.82722123691</v>
+        <v>6043.16115794848</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -720,7 +720,7 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>3188.92280046068</v>
+        <v>2200.2757381369</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -730,7 +730,7 @@
         <v>45139</v>
       </c>
       <c r="H16" t="n">
-        <v>6371.19483623828</v>
+        <v>4194.17721783023</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -742,7 +742,7 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>2844.30406969614</v>
+        <v>1547.670689363</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -752,7 +752,7 @@
         <v>45170</v>
       </c>
       <c r="H17" t="n">
-        <v>4898.97647813781</v>
+        <v>3949.51492866733</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -764,7 +764,7 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>2585.22393862862</v>
+        <v>1369.83767094784</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -774,7 +774,7 @@
         <v>45200</v>
       </c>
       <c r="H18" t="n">
-        <v>3821.63600086875</v>
+        <v>3623.72963573191</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -786,7 +786,7 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>2464.40195126374</v>
+        <v>1317.41210586727</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -796,7 +796,7 @@
         <v>45231</v>
       </c>
       <c r="H19" t="n">
-        <v>3735.55061360509</v>
+        <v>3673.90437794135</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -808,7 +808,7 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>2475.13749130277</v>
+        <v>1134.98830662042</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -818,7 +818,7 @@
         <v>45261</v>
       </c>
       <c r="H20" t="n">
-        <v>3830.6488356244</v>
+        <v>4846.51075558709</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -830,7 +830,7 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>2608.58569609001</v>
+        <v>2223.82714802786</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -840,7 +840,7 @@
         <v>45292</v>
       </c>
       <c r="H21" t="n">
-        <v>4400.02352809225</v>
+        <v>5441.31803804548</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -852,7 +852,7 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>2903.10436115095</v>
+        <v>2847.3521215205</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -862,7 +862,7 @@
         <v>45323</v>
       </c>
       <c r="H22" t="n">
-        <v>5212.39586852359</v>
+        <v>6711.20793573705</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -874,7 +874,7 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>3226.96971665516</v>
+        <v>3786.67084632688</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -884,7 +884,7 @@
         <v>45352</v>
       </c>
       <c r="H23" t="n">
-        <v>6728.09498441661</v>
+        <v>8152.26588888837</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -896,7 +896,7 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>3543.18206732553</v>
+        <v>4224.49084898721</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -906,7 +906,7 @@
         <v>45383</v>
       </c>
       <c r="H24" t="n">
-        <v>8035.55935707491</v>
+        <v>8315.12333622054</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -918,7 +918,7 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>3734.25706988881</v>
+        <v>4573.14482295559</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -928,7 +928,7 @@
         <v>45413</v>
       </c>
       <c r="H25" t="n">
-        <v>9204.1843123849</v>
+        <v>7518.36485661237</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -940,7 +940,7 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>3701.38650166302</v>
+        <v>4207.87262850338</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -950,7 +950,7 @@
         <v>45444</v>
       </c>
       <c r="H26" t="n">
-        <v>8647.05593724544</v>
+        <v>5533.81950905941</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -962,7 +962,7 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>3500.29407294127</v>
+        <v>3171.96231401824</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -972,7 +972,7 @@
         <v>45474</v>
       </c>
       <c r="H27" t="n">
-        <v>7607.63805678634</v>
+        <v>4495.1063301655</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -984,7 +984,7 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>3176.1282769648</v>
+        <v>2141.73099131663</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -994,7 +994,7 @@
         <v>45505</v>
       </c>
       <c r="H28" t="n">
-        <v>6233.3747924656</v>
+        <v>3664.3427790573</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -1006,7 +1006,7 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>2861.41551650403</v>
+        <v>1528.61314589384</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1016,7 +1016,7 @@
         <v>45536</v>
       </c>
       <c r="H29" t="n">
-        <v>4562.60441302965</v>
+        <v>3212.09969677882</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -1028,7 +1028,7 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>2625.95619471502</v>
+        <v>1434.74434973857</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1038,7 +1038,7 @@
         <v>45566</v>
       </c>
       <c r="H30" t="n">
-        <v>3668.5521544302</v>
+        <v>3419.22451600167</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1050,7 +1050,7 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>2515.94126179645</v>
+        <v>1352.24122084204</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1060,7 +1060,7 @@
         <v>45597</v>
       </c>
       <c r="H31" t="n">
-        <v>3598.13598544915</v>
+        <v>4017.84289786567</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1072,7 +1072,7 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>2523.75215765544</v>
+        <v>1475.76663279545</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1082,7 +1082,7 @@
         <v>45627</v>
       </c>
       <c r="H32" t="n">
-        <v>3754.75377374573</v>
+        <v>4752.60476109366</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -1094,7 +1094,7 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>2635.90870042997</v>
+        <v>2392.54766782345</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1104,7 +1104,7 @@
         <v>45658</v>
       </c>
       <c r="H33" t="n">
-        <v>4399.93441734951</v>
+        <v>5790.63938783482</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -1116,7 +1116,7 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>2888.97564101476</v>
+        <v>3100.32583374256</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1126,7 +1126,7 @@
         <v>45689</v>
       </c>
       <c r="H34" t="n">
-        <v>5227.08932246926</v>
+        <v>7366.59160540544</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -1138,7 +1138,7 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>3182.88145182611</v>
+        <v>3977.24933544144</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1148,7 +1148,7 @@
         <v>45717</v>
       </c>
       <c r="H35" t="n">
-        <v>6632.82383730477</v>
+        <v>8362.25012396623</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -1160,7 +1160,7 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>3473.3372852408</v>
+        <v>4391.69557462591</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1170,7 +1170,7 @@
         <v>45748</v>
       </c>
       <c r="H36" t="n">
-        <v>8434.09621777415</v>
+        <v>8745.22710772767</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -1182,7 +1182,7 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>3662.26685732489</v>
+        <v>4621.65982070786</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1192,7 +1192,7 @@
         <v>45778</v>
       </c>
       <c r="H37" t="n">
-        <v>9451.24186054303</v>
+        <v>7475.06164298306</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
